--- a/biology/Histoire de la zoologie et de la botanique/Albert_Russell_Main/Albert_Russell_Main.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Albert_Russell_Main/Albert_Russell_Main.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert (Bert) Russell Main, né le 6 mars 1919 à Perth et mort le 3 décembre 2009,  est un zoologiste australien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après la Seconde Guerre mondiale, durant laquelle il sert dans le corps de volontaire puis dans l'armée de l'air australienne, il étudie à l'université de Chicago grâce à une bourse Fulbright en 1950. Il travaille dans le département de zoologie de l'Université d'Australie-Occidentale de 1952 à 1967. Il obtient un doctorat en 1956. De 1967 à 1984, il enseigne la zoologie. Il travaille de 1972 à 1979 à l'Institut australien de science marine. De 1972 à 1985, il est membre du service de protection de l’environnement d'Australie, de 1980 à 1983, président du service des parcs nationaux. Il est fait commandeur de l'ordre de l'Empire britannique en 1981.
 Il est fait membre de l'Académie australienne des sciences en 1969.
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Biographie Bright Sparcs
  Portail de l’histoire de la zoologie et de la botanique   Portail de la zoologie                    </t>
